--- a/medicine/Sexualité et sexologie/Combien_tu_m'aimes__/Combien_tu_m'aimes__.xlsx
+++ b/medicine/Sexualité et sexologie/Combien_tu_m'aimes__/Combien_tu_m'aimes__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Combien_tu_m%27aimes_%3F</t>
+          <t>Combien_tu_m'aimes_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Combien tu m'aimes ? est un film français réalisé par Bertrand Blier, sorti en 2005.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Combien_tu_m%27aimes_%3F</t>
+          <t>Combien_tu_m'aimes_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François vient de gagner au loto. Il s'éprend de Daniela, une entraîneuse du quartier de Pigalle et lui propose une vie commune rémunérée. Elle accepte. Mais François a le cœur fragile, et cette nouvelle vie inquiète son médecin et ami André qui le met en garde. Arrive bientôt Charly, le souteneur de Daniela, qui cherche à reprendre son bien…
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Combien_tu_m%27aimes_%3F</t>
+          <t>Combien_tu_m'aimes_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Combien tu m'aimes ?
 Réalisation : Bertrand Blier
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Combien_tu_m%27aimes_%3F</t>
+          <t>Combien_tu_m'aimes_?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Monica Bellucci : Daniela
 Bernard Campan : François
@@ -629,7 +647,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Combien_tu_m%27aimes_%3F</t>
+          <t>Combien_tu_m'aimes_?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,7 +665,9 @@
           <t>Bande son</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La bande-son se compose principalement d'extraits d'opéras italiens (Vincenzo Bellini, Giuseppe Verdi et Giacomo Puccini). Ainsi lors de la fête dans l'appartement les invités dansent sur la musique de carnaval de La Traviata, (référence forte puisque le rôle-titre de cet opéra figurait une courtisane). Dans la scène finale, dans laquelle Daniela et François prennent leur petit déjeuner, on entend le duo d'amour de Madame Butterfly.
 </t>
@@ -660,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Combien_tu_m%27aimes_%3F</t>
+          <t>Combien_tu_m'aimes_?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,7 +698,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le tournage s'est déroulé de février à avril 2005.
 Le cinéaste fait une petite apparition, à la façon d'Alfred Hitchcock (voir à ce sujet la liste des caméos d'Hitchcock).</t>
